--- a/backtest/bt_report/rs_m_style_28/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_m_style_28/single_run/summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51600" yWindow="8320" windowWidth="28400" windowHeight="25040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="概览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概览" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>STOCK:10000000.0</t>
+          <t>STOCK:100000000.0</t>
         </is>
       </c>
       <c r="C5" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>90865738.73816782</v>
+        <v>908738390.3832812</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1916.472167819738</v>
+        <v>17.77528119087219</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>8.086573873816782</v>
+        <v>8.087383903832812</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.3205608577892443</v>
+        <v>0.3205756902428241</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>9.086573873816782</v>
+        <v>9.087383903832812</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="C13" s="13" t="n"/>
       <c r="D13" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>176.1695527098854</v>
+        <v>176.1701765707547</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7480790957847523</v>
+        <v>0.7480792976361503</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2269827517152699</v>
+        <v>0.226990455686211</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.14977109925425</v>
+        <v>1.149789301021674</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.159449146203536</v>
+        <v>0.1594541497323208</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.636748857960538</v>
+        <v>1.636778960097128</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2796804861670674</v>
+        <v>0.2796857563499046</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02269421003826337</v>
+        <v>0.0226949773875232</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.922168052365963</v>
+        <v>1.922462852594191</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1446661859927352</v>
+        <v>0.1446807356539239</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2540516347027135</v>
+        <v>0.2540657288735355</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4563526160712286</v>
+        <v>0.4563675607986098</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.580250405150072</v>
+        <v>1.580271909930377</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.6730126845800901</v>
+        <v>0.6730626084864542</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.3038142837663284</v>
+        <v>0.3037898723317873</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2452529037430702</v>
+        <v>0.2452540112887991</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2445780338470299</v>
+        <v>0.2445916781972098</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.506839066921105</v>
+        <v>0.5068554050143876</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.124255517922692</v>
+        <v>1.124273141787896</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.655367567960319</v>
+        <v>1.655397667877107</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.57387688300802</v>
+        <v>1.573896268666877</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03109607922411479</v>
+        <v>0.03109627666020765</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.252628907806943</v>
+        <v>0.2526335246867178</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6938679999999976</v>
+        <v>0.6939130000000023</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5414182350737048</v>
+        <v>0.5414605597789043</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.248428513679279</v>
+        <v>3.248438871041873</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.097451873517654</v>
+        <v>5.097566201075529</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.111806232835142</v>
+        <v>1.111898308826959</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.002580242686400786</v>
+        <v>-0.002530372305942716</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.327853379199996</v>
+        <v>2.327867726131574</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.748670818563979</v>
+        <v>2.748783956375146</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.1856333626958667</v>
+        <v>-0.1856351534031126</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.04072763028752212</v>
+        <v>0.0407260450613041</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-1.015173493269767</v>
+        <v>-1.015160834909506</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.6645484515754287</v>
+        <v>-0.6645358763688011</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1776726278093892</v>
+        <v>0.1776801179149584</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2910727529988782</v>
+        <v>0.2910812824066467</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.589811111960577</v>
+        <v>1.589817022534754</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.985212361327846</v>
+        <v>1.985226516455832</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.1147620402347778</v>
+        <v>-0.1147607973257297</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.183148500416589</v>
+        <v>0.1831515373244568</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.6044110714643095</v>
+        <v>-0.604372212052925</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.05934756147396066</v>
+        <v>-0.05930612144834439</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="7">
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.4227268506536475</v>
+        <v>0.4227303976314911</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.0331160053089667</v>
+        <v>-0.03311318729853999</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.829734680543482</v>
+        <v>1.829731657435997</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.139455654469798</v>
+        <v>1.139452179745072</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4423076923076923</v>
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.6579744378067192</v>
+        <v>0.6579863803009154</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.02067089216749628</v>
+        <v>-0.02066279781138781</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.126901404388061</v>
+        <v>2.126900666818903</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.443312666581922</v>
+        <v>1.443325915123614</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.0802227563035494</v>
+        <v>0.08022260327749385</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.06254801158272648</v>
+        <v>-0.0625474525524585</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.4725826209560937</v>
+        <v>0.4725778005729463</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0432755844685541</v>
+        <v>0.04326471813972479</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.1742194602369102</v>
+        <v>0.1742239847113115</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.3468758209802522</v>
+        <v>0.3468812844424775</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>2.621708636238428</v>
+        <v>2.621709704731507</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>3.869568768409189</v>
+        <v>3.86958212998613</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02515199999999995</v>
+        <v>-0.02515500000000026</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.0192696707589286</v>
+        <v>-0.01926973005965038</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.06568500192978854</v>
+        <v>0.06568520804133637</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05219450720509733</v>
+        <v>0.05220054983074207</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01328027566109835</v>
+        <v>-0.01328117129520767</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.08170795345829718</v>
+        <v>0.08171725250187634</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.03786110370684359</v>
+        <v>-0.0378624545224937</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1495513269440909</v>
+        <v>0.1495581434850575</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3384378091526568</v>
+        <v>0.3384532722280384</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.03606715517383863</v>
+        <v>-0.03606855842065093</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1472407404571965</v>
+        <v>0.1472480671428993</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.2111504143208416</v>
+        <v>0.2111587112203686</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1249741042266308</v>
+        <v>0.1249865016570457</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1973627088361598</v>
+        <v>0.1973799995768635</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.06446196723317821</v>
+        <v>-0.06446701603846938</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.040334890540769</v>
+        <v>0.04033708144187886</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.0381793240717081</v>
+        <v>-0.03818138418401995</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1899386309200046</v>
+        <v>0.189949564663596</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07839901812116379</v>
+        <v>0.07840282746960026</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02556331948864665</v>
+        <v>-0.02556422599111363</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.1096921239175302</v>
+        <v>-0.1096916954680699</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.0005045939400372124</v>
+        <v>0.0005042443179894551</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.05440589314531419</v>
+        <v>0.05440708975481434</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.06071699216180459</v>
+        <v>-0.06071771477007659</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.005592717457333585</v>
+        <v>0.005592639136306365</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01279085890034537</v>
+        <v>0.01279153159330249</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.03704911401857602</v>
+        <v>-0.03705051896611822</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03370021933027356</v>
+        <v>-0.03370077529197857</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02560976506882617</v>
+        <v>-0.02561100179384368</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01378831087272114</v>
+        <v>-0.01378874664228891</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07239585345034816</v>
+        <v>0.07239966527546127</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.05476395284280977</v>
+        <v>-0.05476687511883227</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.01758855207944254</v>
+        <v>0.01759010272249206</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01998768691017316</v>
+        <v>0.01998967121612205</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.01751866581778183</v>
+        <v>-0.01751873724076802</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.01113442846341772</v>
+        <v>-0.01113531693964409</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.03622158752421223</v>
+        <v>0.03622243924490154</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04699349394138896</v>
+        <v>0.04699474302998996</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-7.02860422276963e-05</v>
+        <v>-6.839842269479313e-05</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01012347050430318</v>
+        <v>0.01012303144973714</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.004117099211124797</v>
+        <v>0.004117105464250814</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0534590737708236</v>
+        <v>0.05346007091711447</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.01445436660312405</v>
+        <v>0.01445416519347997</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.006836448358687686</v>
+        <v>-0.006836806205868129</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.08703737818684631</v>
+        <v>0.08704227642797746</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0608509463003386</v>
+        <v>-0.06085258451814857</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.06436199205614801</v>
+        <v>0.06436445373024235</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.04243822275540099</v>
+        <v>-0.04243968150590505</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.0374576732242643</v>
+        <v>-0.03745895809516786</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.006344296390811799</v>
+        <v>0.006344683878984902</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02970928147522589</v>
+        <v>-0.02971046639208752</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.06265313349127066</v>
+        <v>-0.06265315915437986</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.04304898369330168</v>
+        <v>0.04305367512062208</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.08011409418684878</v>
+        <v>-0.08011956004828735</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.004796317255572724</v>
+        <v>0.004796624003865491</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.001704275399294186</v>
+        <v>0.001705467621676116</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.01582506682682761</v>
+        <v>0.01582485618256935</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1550757954420954</v>
+        <v>0.1550757524438073</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.1027982909700644</v>
+        <v>0.1027992302369392</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01351311117608534</v>
+        <v>0.01351309745272267</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.04758461420262228</v>
+        <v>-0.04758499939495076</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.03536005398964481</v>
+        <v>0.03536211437765813</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.009320292138516484</v>
+        <v>0.009320329816653095</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.00180093273129045</v>
+        <v>0.001800287864440309</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01206034655554622</v>
+        <v>0.01205991786988481</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.011603621715363</v>
+        <v>0.01160397362889332</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.01735335829320528</v>
+        <v>0.01735398569615643</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.04459949519858464</v>
+        <v>0.04459989140845555</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.07208738470767639</v>
+        <v>0.07208845722865553</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.0746070789261668</v>
+        <v>0.07460786017340237</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.0199418420695785</v>
+        <v>-0.01994205562908657</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.04258696934627015</v>
+        <v>0.04258705823203202</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.008327630127944685</v>
+        <v>0.008327751813690831</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1684629060354341</v>
+        <v>0.1684654269920896</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1465013090992831</v>
+        <v>0.1465029645452598</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.0005290655668708233</v>
+        <v>0.000529603511944865</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02906954500709102</v>
+        <v>-0.02907015561286952</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05833955610744812</v>
+        <v>-0.05834112987858375</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06226831838086255</v>
+        <v>0.06227022658355552</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.07299145765132753</v>
+        <v>0.0729934452029084</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.04462538438570096</v>
+        <v>0.04462687640060481</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03852159971435432</v>
+        <v>-0.03852346514634597</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.07654819645665167</v>
+        <v>0.07654864520253368</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.07041207804864769</v>
+        <v>0.0704126534812668</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.05080185944504922</v>
+        <v>0.05080244182256077</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.07041741386861911</v>
+        <v>-0.07041809968419399</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.03484322493465886</v>
+        <v>-0.03484357294838347</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02929652644171277</v>
+        <v>-0.02929735269647549</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01082291132914537</v>
+        <v>0.01082344668523882</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.04325198431168853</v>
+        <v>0.04325326188445566</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.03290045194411728</v>
+        <v>-0.03290136401301502</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.02216312297317469</v>
+        <v>-0.02216368794381218</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.0007679511048666043</v>
+        <v>0.0007681503433949466</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.03736857889109269</v>
+        <v>0.03736949948912915</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.1686037364047421</v>
+        <v>0.1686078555014194</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.01019620863519299</v>
+        <v>-0.01019638716797311</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03906541972469713</v>
+        <v>0.03906229083274937</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.0492365364573697</v>
+        <v>-0.04923660094474958</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-1.40335306952899e-06</v>
+        <v>-1.090798873226717e-06</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.09643210894388665</v>
+        <v>0.0964384564195484</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.07006371061493577</v>
+        <v>-0.0700643542081153</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-9.782024355753371e-06</v>
+        <v>-8.700635002467649e-07</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.02089551960391545</v>
+        <v>-0.02089682506167234</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1037106422377536</v>
+        <v>0.1037171764155802</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4160897044877097</v>
+        <v>0.4161061715412904</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1611022615055706</v>
+        <v>-0.1611033850528903</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-7.629826603849921e-06</v>
+        <v>-9.666478811842794e-07</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-8.935307708624052e-06</v>
+        <v>-1.692444067336041e-06</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08644904642853002</v>
+        <v>-0.08643866224295138</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.03473788489414742</v>
+        <v>-0.03472248081707385</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1348047920102358</v>
+        <v>0.1348004585513369</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2727991717288114</v>
+        <v>0.2728021915215457</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.1047172234440088</v>
+        <v>-0.1047190973806729</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-1.056528754850294e-05</v>
+        <v>-5.053640423913208e-07</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-4.408134477218439e-06</v>
+        <v>-6.16273287956659e-08</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04169235033193919</v>
+        <v>-0.04169307958296087</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1735012540578416</v>
+        <v>0.1735017906025282</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04604550722074108</v>
+        <v>0.04604513010406586</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1271305953321022</v>
+        <v>-0.1271295486161519</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.0174469478289031</v>
+        <v>-0.01744762021386437</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01317469839405172</v>
+        <v>-0.0131747730811661</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01827863901902849</v>
+        <v>-0.01827771031348058</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.01069501536062956</v>
+        <v>0.01069370237727107</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.06639430644947886</v>
+        <v>-0.06639483639110899</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007462818633336976</v>
+        <v>-0.007464044104668832</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01949473893885911</v>
+        <v>-0.01949515990369721</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.05998214904863008</v>
+        <v>0.05998593694501309</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04831131001751721</v>
+        <v>0.04830811493098386</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.05518929192536493</v>
+        <v>0.05519090902234014</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.002112728503329442</v>
+        <v>-0.00211074830951874</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.007356816016384826</v>
+        <v>-0.007356863276575254</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0177041554020354</v>
+        <v>0.01770326250591725</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.08512518608543207</v>
+        <v>0.08512607351457646</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01391592502711303</v>
+        <v>0.01391713667231165</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04237993894674341</v>
+        <v>0.04238191211554354</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.05262080127739166</v>
+        <v>-0.05262111280104254</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.005441173047974646</v>
+        <v>-0.005441124207733794</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04966659698889409</v>
+        <v>0.04966760435303907</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.06927610438110299</v>
+        <v>0.069275874429229</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.0007388326516257759</v>
+        <v>0.0007384761926463312</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.09418178671858146</v>
+        <v>0.09418673577401493</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07731108807611231</v>
+        <v>-0.07731267167210354</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.01862215961605751</v>
+        <v>-0.01861952494663932</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.004725001384011884</v>
+        <v>0.004723511673691894</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.004503957591124874</v>
+        <v>-0.00450523923448487</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.08280181507332829</v>
+        <v>0.08280222332963949</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.005125580254890072</v>
+        <v>-0.005126747599865977</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01320276424095401</v>
+        <v>0.01320273681093331</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.05964753157225378</v>
+        <v>0.05965240220719337</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.009899080079587952</v>
+        <v>0.009893386790650549</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.03835237091130561</v>
+        <v>-0.03835191597155596</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.06292470683149909</v>
+        <v>0.06292602153394955</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.03166493424817163</v>
+        <v>0.03166471152587191</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.07831207045774302</v>
+        <v>-0.07831207471095769</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-1.157981065702529e-06</v>
+        <v>-2.190374418509222e-07</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.05508693014310118</v>
+        <v>0.05508694890152155</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.03322994398362278</v>
+        <v>0.03322955505960024</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.01317082441037232</v>
+        <v>0.01317288822631291</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02954769962068904</v>
+        <v>-0.02954756207771436</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.02408744269266949</v>
+        <v>-0.02408805703214967</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.001679268049532334</v>
+        <v>0.001678854374492111</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.0168737176110757</v>
+        <v>-0.01687337903547181</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.02117570943133784</v>
+        <v>0.02117637900365499</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.03336874185737115</v>
+        <v>-0.03336833740756451</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-1.115884230795672e-06</v>
+        <v>-6.19545638125274e-08</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-9.620682548394655e-07</v>
+        <v>-1.396158111344192e-08</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.07537032808536548</v>
+        <v>0.07537016127359708</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.06067516458473743</v>
+        <v>-0.06067507445557396</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-1.679133194709692e-07</v>
+        <v>1.315157382997256e-08</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-2.149222627867431e-06</v>
+        <v>6.531252294550427e-08</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-1.62822022842235e-06</v>
+        <v>-1.599442367439252e-08</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.02236311304115102</v>
+        <v>0.02236373549417392</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02405544875659471</v>
+        <v>0.02405485380218253</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.09001393122782986</v>
+        <v>-0.09001538916552743</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06970869778776501</v>
+        <v>0.06971070745670382</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.04867587688455866</v>
+        <v>-0.0486739646590979</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.009906520326440682</v>
+        <v>-0.009904947298849387</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.0318557426483459</v>
+        <v>0.03185391280916772</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0.04291606568309714</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.04056042348962685</v>
+        <v>-0.04055996579931942</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-7.400275086055785e-07</v>
+        <v>-1.409933696461252e-07</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-6.470511075828966e-07</v>
+        <v>-3.991375940870512e-08</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.06334809672031194</v>
+        <v>-0.06334871287153321</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.02920992453285387</v>
+        <v>0.02920956442736999</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.04254893208800126</v>
+        <v>-0.04254973796163053</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02245775628783087</v>
+        <v>-0.02245720737326418</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-1.393907902769165e-06</v>
+        <v>-1.24689423786073e-07</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01637450458687351</v>
+        <v>0.01637360647129471</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1111209216372215</v>
+        <v>0.1111202887552885</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.132344057424101</v>
+        <v>0.1323443066289118</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.003881944508574819</v>
+        <v>-0.003881045793637128</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-3.679582710414131e-06</v>
+        <v>2.624750417012933e-09</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>2.222991006828323e-07</v>
+        <v>4.376632056768415e-08</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_m_style_28/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_m_style_28/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-10-08</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>399006.XSHE</t>
+          <t>000300.XSHG</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>908738390.3832812</v>
+        <v>301984122.72723</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>17.77528119087219</v>
+        <v>1428.13422998786</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>8.087383903832812</v>
+        <v>2.0198412272723</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.3205756902428241</v>
+        <v>0.1850963373730683</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>9.087383903832812</v>
+        <v>3.0198412272723</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>176.1701765707547</v>
+        <v>146.8024052102039</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7480792976361503</v>
+        <v>0.7408180497370067</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.226990455686211</v>
+        <v>0.2081156806016741</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.149789301021674</v>
+        <v>0.7698135961845461</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1594541497323208</v>
+        <v>0.1485656813737694</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.636778960097128</v>
+        <v>1.078380141530154</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2796857563499046</v>
+        <v>0.2796829330686265</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0226949773875232</v>
+        <v>0.02115641062821034</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.922462852594191</v>
+        <v>0.9778769959978847</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1446807356539239</v>
+        <v>0.1104871764110318</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2540657288735355</v>
+        <v>0.1396893873707355</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4563675607986098</v>
+        <v>0.6581498922401717</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.580271909930377</v>
+        <v>0.940607270825208</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.6730626084864542</v>
+        <v>0.6881204221081691</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.3037898723317873</v>
+        <v>0.264418103075089</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2452540112887991</v>
+        <v>0.1743590071856125</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2445916781972098</v>
+        <v>0.1338184244572078</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.5068554050143876</v>
+        <v>0.7969444549652339</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.124273141787896</v>
+        <v>0.7533494434827432</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.655397667877107</v>
+        <v>1.081522177536466</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.573896268666877</v>
+        <v>0.9823672968569576</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03109627666020765</v>
+        <v>0.02051876371868887</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2526335246867178</v>
+        <v>0.2526304177922559</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,182 +1154,162 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6939130000000023</v>
+        <v>0.1887990000000002</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5414605597789043</v>
+        <v>0.02208563851219758</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.248438871041873</v>
+        <v>1.964046652927247</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.097566201075529</v>
+        <v>0.3256765502518791</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.111898308826959</v>
+        <v>-0.18563272681084</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.002530372305942716</v>
+        <v>-0.1066045709127394</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.327867726131574</v>
+        <v>-1.015161071335244</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.748783956375146</v>
+        <v>-0.8552776859076109</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.1856351534031126</v>
+        <v>0.1776775375754421</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.0407260450613041</v>
+        <v>-0.03467846778160304</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-1.015160834909506</v>
+        <v>1.589822366809752</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.6645358763688011</v>
+        <v>-0.009085744058278337</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1776801179149584</v>
+        <v>-0.114758641981805</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2910812824066467</v>
+        <v>0.1576553042713737</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.589817022534754</v>
+        <v>-0.6043632080940712</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.985226516455832</v>
+        <v>0.02668674485334869</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.1147607973257297</v>
+        <v>0.422730983699464</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.1831515373244568</v>
+        <v>0.03798929242960385</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.604372212052925</v>
+        <v>1.829741109074972</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.05930612144834439</v>
+        <v>0.9939864681281706</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.4227303976314911</v>
+        <v>0.6579827584646001</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.03311318729853999</v>
+        <v>0.2956516898383878</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.829731657435997</v>
+        <v>2.126899231154795</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.139452179745072</v>
+        <v>2.569294656621246</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.6579863803009154</v>
+        <v>0.08022406083379391</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.02066279781138781</v>
+        <v>0.1317692439570982</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.126900666818903</v>
+        <v>0.4725846886075208</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.443325915123614</v>
+        <v>0.7705598435297306</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.08022260327749385</v>
+        <v>0.1742230472459136</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.0625474525524585</v>
+        <v>0.2734382716520615</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.4725778005729463</v>
+        <v>2.621706636254015</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.04326471813972479</v>
+        <v>3.568664077857556</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.1742239847113115</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.3468812844424775</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>2.621709704731507</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>3.86958212998613</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02515500000000026</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01926973005965038</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.06568520804133637</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05220054983074207</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01328117129520767</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.08171725250187634</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.0378624545224937</v>
+        <v>0.1312910000000005</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1495581434850575</v>
+        <v>0.07840246231959758</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3384532722280384</v>
+        <v>-0.02556420683171279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.03606855842065093</v>
+        <v>-0.1096905364153233</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1472480671428993</v>
+        <v>0.0005045356240884757</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.2111587112203686</v>
+        <v>0.05440665273440337</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1249865016570457</v>
+        <v>-0.06071671028332015</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1973799995768635</v>
+        <v>0.005592355874071364</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.06446701603846938</v>
+        <v>0.0127913614218611</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0</v>
+        <v>-0.037049624195306</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.04033708144187886</v>
+        <v>-0.03370133247774754</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.03818138418401995</v>
+        <v>-0.02560993769821451</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.189949564663596</v>
+        <v>-0.01378845313856936</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07840282746960026</v>
+        <v>0.07239813792973537</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02556422599111363</v>
+        <v>-0.05476605894683806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.1096916954680699</v>
+        <v>0.01759081269967888</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.0005042443179894551</v>
+        <v>0.01998885447785059</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.05440708975481434</v>
+        <v>-0.01751819442080937</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.06071771477007659</v>
+        <v>-0.01113510622565173</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.005592639136306365</v>
+        <v>0.03622144031467478</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01279153159330249</v>
+        <v>0.04699458089414299</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.03705051896611822</v>
+        <v>-6.892345342379702e-05</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03370077529197857</v>
+        <v>0.01012300379671593</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02561100179384368</v>
+        <v>0.004117615167031685</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01378874664228891</v>
+        <v>0.05345936832933185</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07239966527546127</v>
+        <v>0.01445355130895765</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.05476687511883227</v>
+        <v>-0.006837221173521146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.01759010272249206</v>
+        <v>0.08704255296755181</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01998967121612205</v>
+        <v>-0.06085339994771544</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.01751873724076802</v>
+        <v>0.06436433804830455</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.01113531693964409</v>
+        <v>-0.04243951539670465</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.03622243924490154</v>
+        <v>-0.03745873697200996</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04699474302998996</v>
+        <v>0.006344938718138682</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-6.839842269479313e-05</v>
+        <v>-0.02971107823514052</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01012303144973714</v>
+        <v>-0.06265252803017873</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.004117105464250814</v>
+        <v>0.04305313155437118</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05346007091711447</v>
+        <v>-0.08011657656781634</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.01445416519347997</v>
+        <v>0.004795744562030579</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.006836806205868129</v>
+        <v>0.001706079857241027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.08704227642797746</v>
+        <v>0.01582495452257615</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.06085258451814857</v>
+        <v>0.1550751806364024</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.06436445373024235</v>
+        <v>0.1027994768027543</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.04243968150590505</v>
+        <v>0.01351303753910837</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.03745895809516786</v>
+        <v>-0.04758371951412999</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.006344683878984902</v>
+        <v>0.03536157986835509</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02971046639208752</v>
+        <v>0.009320117893937274</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.06265315915437986</v>
+        <v>0.001800507967930853</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.04305367512062208</v>
+        <v>0.01205960396369732</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.08011956004828735</v>
+        <v>0.01160370563916602</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.004796624003865491</v>
+        <v>0.01735429357612062</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.001705467621676116</v>
+        <v>0.04459997584825759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.01582485618256935</v>
+        <v>0.0720881144273029</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1550757524438073</v>
+        <v>0.07460703906419486</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.1027992302369392</v>
+        <v>-0.01994171626909158</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01351309745272267</v>
+        <v>0.04258723234182304</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.04758499939495076</v>
+        <v>0.008327718221771807</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.03536211437765813</v>
+        <v>0.1684648943709901</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.009320329816653095</v>
+        <v>0.1465025303813974</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.001800287864440309</v>
+        <v>0.000529480316602271</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01205991786988481</v>
+        <v>-0.02907011354384581</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.01160397362889332</v>
+        <v>-0.05834096350725626</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.01735398569615643</v>
+        <v>0.06226956989252419</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.04459989140845555</v>
+        <v>0.07299320405458198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.07208845722865553</v>
+        <v>0.04462735353341918</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.07460786017340237</v>
+        <v>-0.03852305762294794</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.01994205562908657</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.04258705823203202</v>
+        <v>0.0765487269688887</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.008327751813690831</v>
+        <v>0.07041266504212662</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1684654269920896</v>
+        <v>0.05080260480024146</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1465029645452598</v>
+        <v>-0.07041819143807193</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.000529603511944865</v>
+        <v>-0.03484334149818369</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02907015561286952</v>
+        <v>-0.02929709904481947</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05834112987858375</v>
+        <v>0.01082314685384023</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06227022658355552</v>
+        <v>0.0432535195906818</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.0729934452029084</v>
+        <v>-0.0329014858201796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.04462687640060481</v>
+        <v>-0.02216326603618202</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03852346514634597</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.07654864520253368</v>
+        <v>0.0007678607145993332</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0704126534812668</v>
+        <v>0.03736942277815092</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.05080244182256077</v>
+        <v>0.1686069716151399</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.07041809968419399</v>
+        <v>-0.01019649617332297</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.03484357294838347</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02929735269647549</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01082344668523882</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.04325326188445566</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.03290136401301502</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.02216368794381218</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.0007681503433949466</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.03736949948912915</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.1686078555014194</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>-0.01019638716797311</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03906229083274937</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.04923660094474958</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-1.090798873226717e-06</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.0964384564195484</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.0700643542081153</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-8.700635002467649e-07</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.02089682506167234</v>
+        <v>0.02773628455879318</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1037171764155802</v>
+        <v>0.07112691442598273</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4161061715412904</v>
+        <v>-0.07153686575062779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1611033850528903</v>
+        <v>0.1089526657122095</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-9.666478811842794e-07</v>
+        <v>0.01771734447559492</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-1.692444067336041e-06</v>
+        <v>-0.05880665255811235</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08643866224295138</v>
+        <v>-0.04122068431267556</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.03472248081707385</v>
+        <v>-0.001264016269519996</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1348004585513369</v>
+        <v>0.01933725386403351</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08807385286485769</v>
+        <v>-0.05176947738870463</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2728021915215457</v>
+        <v>-0.07100382525176563</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.1047190973806729</v>
+        <v>-0.00370584443911226</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-5.053640423913208e-07</v>
+        <v>-0.03879706368005686</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-6.16273287956659e-08</v>
+        <v>0.01131828705896409</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04169307958296087</v>
+        <v>0.009994603496576993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1735017906025282</v>
+        <v>-0.006103524515233882</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04604513010406586</v>
+        <v>0.000810394552642979</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1271295486161519</v>
+        <v>-0.01830496786484115</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01744762021386437</v>
+        <v>-0.006699356549024871</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.0131747730811661</v>
+        <v>0.02019936066955363</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01827771031348058</v>
+        <v>-0.002585875200586618</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.01069370237727107</v>
+        <v>-0.01932917830465375</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.06639483639110899</v>
+        <v>-0.01231711228281673</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007464044104668832</v>
+        <v>0.0004182257996239169</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01949515990369721</v>
+        <v>0.008749449780840912</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.05998593694501309</v>
+        <v>0.01465275192505633</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04830811493098386</v>
+        <v>-0.01386122028914272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.05519090902234014</v>
+        <v>0.02496405451727091</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.00211074830951874</v>
+        <v>-0.005073449664909857</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.007356863276575254</v>
+        <v>0.0988989421615567</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01770326250591725</v>
+        <v>-0.008102733327650768</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.08512607351457646</v>
+        <v>-0.04950545695402508</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01391713667231165</v>
+        <v>0.08645934751430939</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04238191211554354</v>
+        <v>-0.03444914833785595</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.05262111280104254</v>
+        <v>-0.01507109629004633</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.005441124207733794</v>
+        <v>0.01085455863522133</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04966760435303907</v>
+        <v>-0.003033994506895343</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.069275874429229</v>
+        <v>-0.002193503369402383</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.0007384761926463312</v>
+        <v>0.05462161505415652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.09418673577401493</v>
+        <v>-0.0464215818743281</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07731267167210354</v>
+        <v>0.007334844522248529</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.01861952494663932</v>
+        <v>0.04554725113975788</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.004723511673691894</v>
+        <v>0.003260484980401213</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.00450523923448487</v>
+        <v>0.02216805428612245</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.08280222332963949</v>
+        <v>-0.01882043807445499</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.005126747599865977</v>
+        <v>0.006889884588559214</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01320273681093331</v>
+        <v>0.01091612297262756</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.05965240220719337</v>
+        <v>0.008647700133080916</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.009893386790650549</v>
+        <v>-0.007843158293865615</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.03835191597155596</v>
+        <v>0.03280939334695709</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.06292602153394955</v>
+        <v>-0.02366845780621385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.03166471152587191</v>
+        <v>0.09734589081207989</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.07831207471095769</v>
+        <v>0.09384757835186708</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-2.190374418509222e-07</v>
+        <v>0.04226295128442081</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.05508694890152155</v>
+        <v>-0.01892650366059589</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.03322955505960024</v>
+        <v>0.02071182103639191</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.01317288822631291</v>
+        <v>0.08535593860005508</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02954756207771436</v>
+        <v>0.01609156209318185</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.02408805703214967</v>
+        <v>-0.02484738196678782</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.001678854374492111</v>
+        <v>0.01802585179810756</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01687337903547181</v>
+        <v>-0.08096239264783212</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.02117637900365499</v>
+        <v>0.005759579321982677</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.03336833740756451</v>
+        <v>0.02197915044575982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-6.19545638125274e-08</v>
+        <v>0.01789924842489232</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-1.396158111344192e-08</v>
+        <v>-0.03503278936987497</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.07537016127359708</v>
+        <v>0.050217320784679</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.06067507445557396</v>
+        <v>0.06074291547756983</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>1.315157382997256e-08</v>
+        <v>0.02929959060036968</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>6.531252294550427e-08</v>
+        <v>0.07316440692128579</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-1.599442367439252e-08</v>
+        <v>0.0100300409049312</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.02236373549417392</v>
+        <v>-0.0358861641578776</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02405485380218253</v>
+        <v>-0.04252524272042191</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.09001538916552743</v>
+        <v>0.002187838033884448</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06971070745670382</v>
+        <v>0.05959360095251376</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.0486739646590979</v>
+        <v>-0.05427522483606939</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.009904947298849387</v>
+        <v>0.05636656517290128</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03185391280916772</v>
+        <v>-0.005404061630617019</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.04291606568309714</v>
+        <v>0.0755615610018201</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.04055996579931942</v>
+        <v>0.04575711070695321</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-1.409933696461252e-07</v>
+        <v>0.01606301817682598</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-3.991375940870512e-08</v>
+        <v>0.06707494481312315</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.06334871287153321</v>
+        <v>-0.006117821490978725</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.02920956442736999</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.04254973796163053</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02245720737326418</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-1.24689423786073e-07</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01637360647129471</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.1111202887552885</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.004280811429914211</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.07009750317718355</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.1323443066289118</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.003881045793637128</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>2.624750417012933e-09</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>4.376632056768415e-08</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
